--- a/arhiva.xlsx
+++ b/arhiva.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GC107"/>
+  <dimension ref="A1:GD205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" t="n">
-        <v>9.361000000000001</v>
+        <v>9.369</v>
       </c>
       <c r="D2" t="n">
         <v>9.587</v>
@@ -973,6 +973,9 @@
       </c>
       <c r="FW2" t="n">
         <v>9.361000000000001</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>9.369</v>
       </c>
     </row>
     <row r="3">
@@ -982,10 +985,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>94.47</v>
+        <v>93.16</v>
       </c>
       <c r="D3" t="n">
         <v>89.89</v>
@@ -1523,6 +1526,9 @@
       </c>
       <c r="FZ3" t="n">
         <v>94.47</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>93.16</v>
       </c>
     </row>
     <row r="4">
@@ -1532,10 +1538,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>101.08</v>
+        <v>100.04</v>
       </c>
       <c r="D4" t="n">
         <v>96.23</v>
@@ -2082,6 +2088,9 @@
       </c>
       <c r="GC4" t="n">
         <v>101.08</v>
+      </c>
+      <c r="GD4" t="n">
+        <v>100.04</v>
       </c>
     </row>
     <row r="5">
@@ -2091,10 +2100,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>1768.6</v>
+        <v>1768.9</v>
       </c>
       <c r="D5" t="n">
         <v>1750.6</v>
@@ -2620,6 +2629,9 @@
       </c>
       <c r="FV5" t="n">
         <v>1768.6</v>
+      </c>
+      <c r="FW5" t="n">
+        <v>1768.9</v>
       </c>
     </row>
     <row r="6">
@@ -2629,10 +2641,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>19.015</v>
+        <v>19.065</v>
       </c>
       <c r="D6" t="n">
         <v>18.89</v>
@@ -3146,6 +3158,9 @@
       </c>
       <c r="FR6" t="n">
         <v>19.015</v>
+      </c>
+      <c r="FS6" t="n">
+        <v>19.065</v>
       </c>
     </row>
     <row r="7">
@@ -3155,10 +3170,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>871.9</v>
+        <v>872.3</v>
       </c>
       <c r="D7" t="n">
         <v>877.3</v>
@@ -3705,6 +3720,9 @@
       </c>
       <c r="GC7" t="n">
         <v>871.9</v>
+      </c>
+      <c r="GD7" t="n">
+        <v>872.3</v>
       </c>
     </row>
     <row r="8">
@@ -3739,294 +3757,6 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4037,10 +3767,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" t="n">
-        <v>1.462</v>
+        <v>1.4665</v>
       </c>
       <c r="D9" t="n">
         <v>1.445</v>
@@ -4416,6 +4146,9 @@
       </c>
       <c r="DX9" t="n">
         <v>1.462</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>1.4665</v>
       </c>
     </row>
     <row r="10">
@@ -4425,10 +4158,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="C10" t="n">
-        <v>2547.394</v>
+        <v>2517.98</v>
       </c>
       <c r="D10" t="n">
         <v>2582</v>
@@ -4444,6 +4177,9 @@
       </c>
       <c r="H10" t="n">
         <v>2547.394</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2517.98</v>
       </c>
     </row>
     <row r="11">
@@ -4466,10 +4202,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>275.84</v>
+        <v>276.58</v>
       </c>
       <c r="D12" t="n">
         <v>279.98</v>
@@ -4683,6 +4419,9 @@
       </c>
       <c r="BV12" t="n">
         <v>275.84</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>276.58</v>
       </c>
     </row>
     <row r="13">
@@ -4692,10 +4431,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>169.0676</v>
+        <v>169.1411</v>
       </c>
       <c r="D13" t="n">
         <v>168.825</v>
@@ -4900,6 +4639,9 @@
       </c>
       <c r="BS13" t="n">
         <v>169.0676</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>169.1411</v>
       </c>
     </row>
     <row r="14">
@@ -4909,10 +4651,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>294.31</v>
+        <v>293.565</v>
       </c>
       <c r="D14" t="n">
         <v>864</v>
@@ -5120,6 +4862,9 @@
       </c>
       <c r="BT14" t="n">
         <v>294.31</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>293.565</v>
       </c>
     </row>
     <row r="15">
@@ -5129,10 +4874,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>136.2049</v>
+        <v>136.4083</v>
       </c>
       <c r="D15" t="n">
         <v>134.66</v>
@@ -5340,6 +5085,9 @@
       </c>
       <c r="BT15" t="n">
         <v>136.2049</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>136.4083</v>
       </c>
     </row>
     <row r="16">
@@ -5349,10 +5097,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>116.27</v>
+        <v>117.09</v>
       </c>
       <c r="D16" t="n">
         <v>116.25</v>
@@ -5560,6 +5308,9 @@
       </c>
       <c r="BT16" t="n">
         <v>116.27</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>117.09</v>
       </c>
     </row>
     <row r="17">
@@ -5569,10 +5320,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>167.0434</v>
+        <v>167.645</v>
       </c>
       <c r="D17" t="n">
         <v>164.155</v>
@@ -5780,6 +5531,9 @@
       </c>
       <c r="BT17" t="n">
         <v>167.0434</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>167.645</v>
       </c>
     </row>
     <row r="18">
@@ -5789,10 +5543,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>55.42</v>
+        <v>56.29</v>
       </c>
       <c r="D18" t="n">
         <v>49.61</v>
@@ -6003,6 +5757,9 @@
       </c>
       <c r="BU18" t="n">
         <v>55.42</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>56.29</v>
       </c>
     </row>
     <row r="19">
@@ -6012,10 +5769,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>160.77</v>
+        <v>161.52</v>
       </c>
       <c r="D19" t="n">
         <v>158.54</v>
@@ -6220,6 +5977,9 @@
       </c>
       <c r="BS19" t="n">
         <v>160.77</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>161.52</v>
       </c>
     </row>
     <row r="20">
@@ -6229,10 +5989,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>166.93</v>
+        <v>168.4129</v>
       </c>
       <c r="D20" t="n">
         <v>160.17</v>
@@ -6449,6 +6209,9 @@
       </c>
       <c r="BW20" t="n">
         <v>166.93</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>168.4129</v>
       </c>
     </row>
     <row r="21">
@@ -6458,10 +6221,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>35.0621</v>
+        <v>35.0878</v>
       </c>
       <c r="D21" t="n">
         <v>34.66</v>
@@ -6669,6 +6432,9 @@
       </c>
       <c r="BT21" t="n">
         <v>35.0621</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>35.0878</v>
       </c>
     </row>
     <row r="22">
@@ -6678,10 +6444,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="n">
-        <v>197.79</v>
+        <v>198.28</v>
       </c>
       <c r="D22" t="n">
         <v>193.05</v>
@@ -6889,6 +6655,9 @@
       </c>
       <c r="BT22" t="n">
         <v>197.79</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>198.28</v>
       </c>
     </row>
     <row r="23">
@@ -6898,10 +6667,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>47.065</v>
+        <v>47.125</v>
       </c>
       <c r="D23" t="n">
         <v>48.205</v>
@@ -7100,6 +6869,9 @@
       </c>
       <c r="BQ23" t="n">
         <v>47.065</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>47.125</v>
       </c>
     </row>
     <row r="24">
@@ -7109,10 +6881,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" t="n">
-        <v>163.49</v>
+        <v>164.22</v>
       </c>
       <c r="D24" t="n">
         <v>155.39</v>
@@ -7320,6 +7092,9 @@
       </c>
       <c r="BT24" t="n">
         <v>163.49</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>164.22</v>
       </c>
     </row>
     <row r="25">
@@ -7329,10 +7104,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="n">
-        <v>116.51</v>
+        <v>116.88</v>
       </c>
       <c r="D25" t="n">
         <v>117.58</v>
@@ -7543,6 +7318,9 @@
       </c>
       <c r="BU25" t="n">
         <v>116.51</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>116.88</v>
       </c>
     </row>
     <row r="26">
@@ -7552,10 +7330,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="n">
-        <v>78.37</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="D26" t="n">
         <v>75.97499999999999</v>
@@ -7760,6 +7538,9 @@
       </c>
       <c r="BS26" t="n">
         <v>78.37</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>78.01000000000001</v>
       </c>
     </row>
     <row r="27">
@@ -7769,10 +7550,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C27" t="n">
-        <v>306.75</v>
+        <v>308.96</v>
       </c>
       <c r="D27" t="n">
         <v>318.195</v>
@@ -7980,6 +7761,9 @@
       </c>
       <c r="BT27" t="n">
         <v>306.75</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>308.96</v>
       </c>
     </row>
     <row r="28">
@@ -7989,10 +7773,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>14.73</v>
+        <v>14.755</v>
       </c>
       <c r="D28" t="n">
         <v>14.61</v>
@@ -8191,6 +7975,9 @@
       </c>
       <c r="BQ28" t="n">
         <v>14.73</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>14.755</v>
       </c>
     </row>
     <row r="29">
@@ -8200,10 +7987,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>133.8</v>
+        <v>133.378</v>
       </c>
       <c r="D29" t="n">
         <v>136.675</v>
@@ -8411,6 +8198,9 @@
       </c>
       <c r="BT29" t="n">
         <v>133.8</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>133.378</v>
       </c>
     </row>
     <row r="30">
@@ -8420,10 +8210,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>34.5861</v>
+        <v>34.66</v>
       </c>
       <c r="D30" t="n">
         <v>34.7641</v>
@@ -8634,6 +8424,9 @@
       </c>
       <c r="BU30" t="n">
         <v>34.5861</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>34.66</v>
       </c>
     </row>
     <row r="31">
@@ -8643,10 +8436,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>165.4901</v>
+        <v>166.4023</v>
       </c>
       <c r="D31" t="n">
         <v>168.395</v>
@@ -8851,6 +8644,9 @@
       </c>
       <c r="BS31" t="n">
         <v>165.4901</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>166.4023</v>
       </c>
     </row>
     <row r="32">
@@ -8860,10 +8656,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>117.69</v>
+        <v>118.1019</v>
       </c>
       <c r="D32" t="n">
         <v>116.315</v>
@@ -9071,6 +8867,9 @@
       </c>
       <c r="BT32" t="n">
         <v>117.69</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>118.1019</v>
       </c>
     </row>
     <row r="33">
@@ -9080,10 +8879,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C33" t="n">
-        <v>64.22499999999999</v>
+        <v>64.5239</v>
       </c>
       <c r="D33" t="n">
         <v>64.84999999999999</v>
@@ -9297,6 +9096,9 @@
       </c>
       <c r="BV33" t="n">
         <v>64.22499999999999</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>64.5239</v>
       </c>
     </row>
     <row r="34">
@@ -9306,10 +9108,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>261.08</v>
+        <v>261.805</v>
       </c>
       <c r="D34" t="n">
         <v>265.12</v>
@@ -9517,6 +9319,9 @@
       </c>
       <c r="BT34" t="n">
         <v>261.08</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>261.805</v>
       </c>
     </row>
     <row r="35">
@@ -9526,10 +9331,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>141.46</v>
+        <v>141.785</v>
       </c>
       <c r="D35" t="n">
         <v>142.535</v>
@@ -9737,6 +9542,9 @@
       </c>
       <c r="BT35" t="n">
         <v>141.46</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>141.785</v>
       </c>
     </row>
     <row r="36">
@@ -9746,10 +9554,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C36" t="n">
-        <v>89.395</v>
+        <v>89.94</v>
       </c>
       <c r="D36" t="n">
         <v>91.89</v>
@@ -9951,6 +9759,9 @@
       </c>
       <c r="BR36" t="n">
         <v>89.395</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>89.94</v>
       </c>
     </row>
     <row r="37">
@@ -9960,10 +9771,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37" t="n">
-        <v>47.525</v>
+        <v>47.675</v>
       </c>
       <c r="D37" t="n">
         <v>49.0876</v>
@@ -10165,6 +9976,9 @@
       </c>
       <c r="BR37" t="n">
         <v>47.525</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>47.675</v>
       </c>
     </row>
     <row r="38">
@@ -10174,10 +9988,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" t="n">
-        <v>145.21</v>
+        <v>145.26</v>
       </c>
       <c r="D38" t="n">
         <v>149.53</v>
@@ -10382,6 +10196,9 @@
       </c>
       <c r="BS38" t="n">
         <v>145.21</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>145.26</v>
       </c>
     </row>
     <row r="39">
@@ -10391,10 +10208,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>17.9762</v>
+        <v>18.0201</v>
       </c>
       <c r="D39" t="n">
         <v>18.28</v>
@@ -10602,6 +10419,9 @@
       </c>
       <c r="BT39" t="n">
         <v>17.9762</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>18.0201</v>
       </c>
     </row>
     <row r="40">
@@ -10611,10 +10431,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C40" t="n">
-        <v>43.655</v>
+        <v>43.7053</v>
       </c>
       <c r="D40" t="n">
         <v>44.315</v>
@@ -10822,6 +10642,9 @@
       </c>
       <c r="BT40" t="n">
         <v>43.655</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>43.7053</v>
       </c>
     </row>
     <row r="41">
@@ -10857,10 +10680,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
-        <v>28.7306</v>
+        <v>28.79</v>
       </c>
       <c r="D43" t="n">
         <v>28.9501</v>
@@ -10957,6 +10780,9 @@
       </c>
       <c r="AI43" t="n">
         <v>28.7306</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>28.79</v>
       </c>
     </row>
     <row r="44">
@@ -10966,10 +10792,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>4.55</v>
+        <v>4.87</v>
       </c>
       <c r="D44" t="n">
         <v>4.4201</v>
@@ -11099,6 +10925,9 @@
       </c>
       <c r="AT44" t="n">
         <v>4.55</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>4.87</v>
       </c>
     </row>
     <row r="45">
@@ -11108,10 +10937,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="n">
-        <v>8.505000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="D45" t="n">
         <v>8.6</v>
@@ -11286,6 +11115,9 @@
       </c>
       <c r="BI45" t="n">
         <v>8.505000000000001</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>8.42</v>
       </c>
     </row>
     <row r="46">
@@ -11295,10 +11127,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C46" t="n">
-        <v>5.0241</v>
+        <v>5.04</v>
       </c>
       <c r="D46" t="n">
         <v>4.9263</v>
@@ -11464,6 +11296,9 @@
       </c>
       <c r="BF46" t="n">
         <v>5.0241</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>5.04</v>
       </c>
     </row>
     <row r="47">
@@ -11473,10 +11308,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
-        <v>120.345</v>
+        <v>121.2</v>
       </c>
       <c r="D47" t="n">
         <v>113.3661</v>
@@ -11681,6 +11516,9 @@
       </c>
       <c r="BS47" t="n">
         <v>120.345</v>
+      </c>
+      <c r="BT47" t="n">
+        <v>121.2</v>
       </c>
     </row>
     <row r="48">
@@ -11690,10 +11528,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>25.595</v>
+        <v>25.56</v>
       </c>
       <c r="D48" t="n">
         <v>25.73</v>
@@ -11898,6 +11736,9 @@
       </c>
       <c r="BS48" t="n">
         <v>25.595</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>25.56</v>
       </c>
     </row>
     <row r="49">
@@ -11907,10 +11748,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" t="n">
-        <v>126.71</v>
+        <v>127.29</v>
       </c>
       <c r="D49" t="n">
         <v>129.62</v>
@@ -12118,6 +11959,9 @@
       </c>
       <c r="BT49" t="n">
         <v>126.71</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>127.29</v>
       </c>
     </row>
     <row r="50">
@@ -12127,10 +11971,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>398.0999</v>
+        <v>400.455</v>
       </c>
       <c r="D50" t="n">
         <v>419.37</v>
@@ -12338,6 +12182,9 @@
       </c>
       <c r="BT50" t="n">
         <v>398.0999</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>400.455</v>
       </c>
     </row>
     <row r="51">
@@ -12347,10 +12194,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C51" t="n">
-        <v>251.41</v>
+        <v>253.07</v>
       </c>
       <c r="D51" t="n">
         <v>250.105</v>
@@ -12564,6 +12411,9 @@
       </c>
       <c r="BV51" t="n">
         <v>251.41</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>253.07</v>
       </c>
     </row>
     <row r="52">
@@ -12573,10 +12423,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>48.21</v>
+        <v>47.77</v>
       </c>
       <c r="D52" t="n">
         <v>46.39</v>
@@ -12787,6 +12637,9 @@
       </c>
       <c r="BU52" t="n">
         <v>48.21</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>47.77</v>
       </c>
     </row>
     <row r="53">
@@ -12796,10 +12649,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C53" t="n">
-        <v>60.29</v>
+        <v>60.79</v>
       </c>
       <c r="D53" t="n">
         <v>59.095</v>
@@ -12995,6 +12848,9 @@
       </c>
       <c r="BP53" t="n">
         <v>60.29</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>60.79</v>
       </c>
     </row>
     <row r="54">
@@ -13004,10 +12860,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C54" t="n">
-        <v>218.57</v>
+        <v>218.815</v>
       </c>
       <c r="D54" t="n">
         <v>219.225</v>
@@ -13215,6 +13071,9 @@
       </c>
       <c r="BT54" t="n">
         <v>218.57</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>218.815</v>
       </c>
     </row>
     <row r="55">
@@ -13224,10 +13083,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>76.22</v>
+        <v>76.628</v>
       </c>
       <c r="D55" t="n">
         <v>77.84999999999999</v>
@@ -13435,6 +13294,9 @@
       </c>
       <c r="BT55" t="n">
         <v>76.22</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>76.628</v>
       </c>
     </row>
     <row r="56">
@@ -13444,10 +13306,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>177.32</v>
+        <v>177.232</v>
       </c>
       <c r="D56" t="n">
         <v>174.7</v>
@@ -13661,6 +13523,9 @@
       </c>
       <c r="BV56" t="n">
         <v>177.32</v>
+      </c>
+      <c r="BW56" t="n">
+        <v>177.232</v>
       </c>
     </row>
     <row r="57">
@@ -13670,10 +13535,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>149.38</v>
+        <v>151.01</v>
       </c>
       <c r="D57" t="n">
         <v>133.68</v>
@@ -13881,6 +13746,9 @@
       </c>
       <c r="BT57" t="n">
         <v>149.38</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>151.01</v>
       </c>
     </row>
     <row r="58">
@@ -13890,10 +13758,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>78.58</v>
+        <v>78.985</v>
       </c>
       <c r="D58" t="n">
         <v>79.875</v>
@@ -14098,6 +13966,9 @@
       </c>
       <c r="BS58" t="n">
         <v>78.58</v>
+      </c>
+      <c r="BT58" t="n">
+        <v>78.985</v>
       </c>
     </row>
     <row r="59">
@@ -14107,10 +13978,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C59" t="n">
-        <v>122.03</v>
+        <v>122.01</v>
       </c>
       <c r="D59" t="n">
         <v>121.7</v>
@@ -14315,6 +14186,9 @@
       </c>
       <c r="BS59" t="n">
         <v>122.03</v>
+      </c>
+      <c r="BT59" t="n">
+        <v>122.01</v>
       </c>
     </row>
     <row r="60">
@@ -14324,10 +14198,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C60" t="n">
-        <v>40.445</v>
+        <v>40.515</v>
       </c>
       <c r="D60" t="n">
         <v>43.5001</v>
@@ -14532,6 +14406,9 @@
       </c>
       <c r="BS60" t="n">
         <v>40.445</v>
+      </c>
+      <c r="BT60" t="n">
+        <v>40.515</v>
       </c>
     </row>
     <row r="61">
@@ -14541,10 +14418,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61" t="n">
-        <v>111.75</v>
+        <v>112.53</v>
       </c>
       <c r="D61" t="n">
         <v>110.58</v>
@@ -14749,6 +14626,9 @@
       </c>
       <c r="BS61" t="n">
         <v>111.75</v>
+      </c>
+      <c r="BT61" t="n">
+        <v>112.53</v>
       </c>
     </row>
     <row r="62">
@@ -14771,10 +14651,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>67.705</v>
+        <v>69.43000000000001</v>
       </c>
       <c r="D63" t="n">
         <v>68.17</v>
@@ -14985,6 +14865,9 @@
       </c>
       <c r="BU63" t="n">
         <v>67.705</v>
+      </c>
+      <c r="BV63" t="n">
+        <v>69.43000000000001</v>
       </c>
     </row>
     <row r="64">
@@ -14994,10 +14877,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C64" t="n">
-        <v>22.845</v>
+        <v>23.485</v>
       </c>
       <c r="D64" t="n">
         <v>21.37</v>
@@ -15199,6 +15082,9 @@
       </c>
       <c r="BR64" t="n">
         <v>22.845</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>23.485</v>
       </c>
     </row>
     <row r="65">
@@ -15213,9 +15099,6 @@
       <c r="C65" t="n">
         <v>86.54000000000001</v>
       </c>
-      <c r="D65" t="n">
-        <v>86.54000000000001</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15302,10 +15185,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C69" t="n">
-        <v>36.555</v>
+        <v>36.742</v>
       </c>
       <c r="D69" t="n">
         <v>35.85</v>
@@ -15504,6 +15387,18 @@
       </c>
       <c r="BQ69" t="n">
         <v>36.555</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>36.742</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>36.742</v>
       </c>
     </row>
     <row r="70">
@@ -15526,10 +15421,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C71" t="n">
-        <v>90.98999999999999</v>
+        <v>92.81</v>
       </c>
       <c r="D71" t="n">
         <v>87.16</v>
@@ -15743,6 +15638,9 @@
       </c>
       <c r="BV71" t="n">
         <v>90.98999999999999</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>92.81</v>
       </c>
     </row>
     <row r="72">
@@ -15752,10 +15650,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
-        <v>64.66</v>
+        <v>64.77</v>
       </c>
       <c r="D72" t="n">
         <v>55.64</v>
@@ -15969,6 +15867,9 @@
       </c>
       <c r="BV72" t="n">
         <v>64.66</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>64.77</v>
       </c>
     </row>
     <row r="73">
@@ -15978,10 +15879,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C73" t="n">
-        <v>37.14</v>
+        <v>37.5</v>
       </c>
       <c r="D73" t="n">
         <v>34.8</v>
@@ -16192,6 +16093,9 @@
       </c>
       <c r="BU73" t="n">
         <v>37.14</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="74">
@@ -16201,10 +16105,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C74" t="n">
-        <v>5.15</v>
+        <v>5.13</v>
       </c>
       <c r="D74" t="n">
         <v>4.46</v>
@@ -16388,6 +16292,9 @@
       </c>
       <c r="BL74" t="n">
         <v>5.15</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>5.13</v>
       </c>
     </row>
     <row r="75">
@@ -16397,10 +16304,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C75" t="n">
-        <v>124.48</v>
+        <v>124.87</v>
       </c>
       <c r="D75" t="n">
         <v>127.43</v>
@@ -16614,6 +16521,9 @@
       </c>
       <c r="BV75" t="n">
         <v>124.48</v>
+      </c>
+      <c r="BW75" t="n">
+        <v>124.87</v>
       </c>
     </row>
     <row r="76">
@@ -16634,156 +16544,6 @@
       <c r="E76" t="n">
         <v>0</v>
       </c>
-      <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>0</v>
-      </c>
-      <c r="R76" t="n">
-        <v>0</v>
-      </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>0</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
-        <v>0</v>
-      </c>
-      <c r="W76" t="n">
-        <v>0</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16792,10 +16552,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>94.88500000000001</v>
+        <v>96.12</v>
       </c>
       <c r="D77" t="n">
         <v>95.06</v>
@@ -17003,6 +16763,9 @@
       </c>
       <c r="BT77" t="n">
         <v>94.88500000000001</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>96.12</v>
       </c>
     </row>
     <row r="78">
@@ -17012,10 +16775,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C78" t="n">
-        <v>145.58</v>
+        <v>145.03</v>
       </c>
       <c r="D78" t="n">
         <v>145.15</v>
@@ -17220,6 +16983,9 @@
       </c>
       <c r="BS78" t="n">
         <v>145.58</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>145.03</v>
       </c>
     </row>
     <row r="79">
@@ -17229,10 +16995,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" t="n">
-        <v>17.87</v>
+        <v>17.865</v>
       </c>
       <c r="D79" t="n">
         <v>18.1</v>
@@ -17425,6 +17191,9 @@
       </c>
       <c r="BO79" t="n">
         <v>17.87</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>17.865</v>
       </c>
     </row>
     <row r="80">
@@ -17434,10 +17203,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" t="n">
-        <v>11.03</v>
+        <v>10.95</v>
       </c>
       <c r="D80" t="n">
         <v>10.94</v>
@@ -17645,6 +17414,9 @@
       </c>
       <c r="BT80" t="n">
         <v>11.03</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>10.95</v>
       </c>
     </row>
     <row r="81">
@@ -17654,10 +17426,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>63.7</v>
+        <v>63.555</v>
       </c>
       <c r="D81" t="n">
         <v>61.87</v>
@@ -17862,6 +17634,9 @@
       </c>
       <c r="BS81" t="n">
         <v>63.7</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>63.555</v>
       </c>
     </row>
     <row r="82">
@@ -17871,10 +17646,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>175.66</v>
+        <v>176.23</v>
       </c>
       <c r="D82" t="n">
         <v>174.22</v>
@@ -18088,6 +17863,9 @@
       </c>
       <c r="BV82" t="n">
         <v>175.66</v>
+      </c>
+      <c r="BW82" t="n">
+        <v>176.23</v>
       </c>
     </row>
     <row r="83">
@@ -18097,10 +17875,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C83" t="n">
-        <v>256.46</v>
+        <v>256.98</v>
       </c>
       <c r="D83" t="n">
         <v>258.055</v>
@@ -18305,6 +18083,9 @@
       </c>
       <c r="BS83" t="n">
         <v>256.46</v>
+      </c>
+      <c r="BT83" t="n">
+        <v>256.98</v>
       </c>
     </row>
     <row r="84">
@@ -18314,10 +18095,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C84" t="n">
-        <v>186.34</v>
+        <v>187.17</v>
       </c>
       <c r="D84" t="n">
         <v>185.72</v>
@@ -18525,6 +18306,9 @@
       </c>
       <c r="BT84" t="n">
         <v>186.34</v>
+      </c>
+      <c r="BU84" t="n">
+        <v>187.17</v>
       </c>
     </row>
     <row r="85">
@@ -18534,10 +18318,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C85" t="n">
-        <v>66.458</v>
+        <v>66.535</v>
       </c>
       <c r="D85" t="n">
         <v>67.645</v>
@@ -18739,6 +18523,9 @@
       </c>
       <c r="BR85" t="n">
         <v>66.458</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>66.535</v>
       </c>
     </row>
     <row r="86">
@@ -18748,10 +18535,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C86" t="n">
-        <v>35.505</v>
+        <v>35.66</v>
       </c>
       <c r="D86" t="n">
         <v>35.57</v>
@@ -18950,6 +18737,9 @@
       </c>
       <c r="BQ86" t="n">
         <v>35.505</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>35.66</v>
       </c>
     </row>
     <row r="87">
@@ -18959,10 +18749,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" t="n">
-        <v>104.26</v>
+        <v>104.25</v>
       </c>
       <c r="D87" t="n">
         <v>102.83</v>
@@ -19170,6 +18960,9 @@
       </c>
       <c r="BT87" t="n">
         <v>104.26</v>
+      </c>
+      <c r="BU87" t="n">
+        <v>104.25</v>
       </c>
     </row>
     <row r="88">
@@ -19179,10 +18972,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C88" t="n">
-        <v>23.225</v>
+        <v>23.23</v>
       </c>
       <c r="D88" t="n">
         <v>23.42</v>
@@ -19381,6 +19174,9 @@
       </c>
       <c r="BQ88" t="n">
         <v>23.225</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>23.23</v>
       </c>
     </row>
     <row r="89">
@@ -19390,10 +19186,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C89" t="n">
-        <v>32.3751</v>
+        <v>33.77</v>
       </c>
       <c r="D89" t="n">
         <v>31.9695</v>
@@ -19589,6 +19385,9 @@
       </c>
       <c r="BP89" t="n">
         <v>32.3751</v>
+      </c>
+      <c r="BQ89" t="n">
+        <v>33.77</v>
       </c>
     </row>
     <row r="90">
@@ -19598,10 +19397,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C90" t="n">
-        <v>96.11</v>
+        <v>96.03</v>
       </c>
       <c r="D90" t="n">
         <v>99.02</v>
@@ -19806,6 +19605,9 @@
       </c>
       <c r="BS90" t="n">
         <v>96.11</v>
+      </c>
+      <c r="BT90" t="n">
+        <v>96.03</v>
       </c>
     </row>
     <row r="91">
@@ -19815,10 +19617,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C91" t="n">
-        <v>77.89</v>
+        <v>78.13500000000001</v>
       </c>
       <c r="D91" t="n">
         <v>73.17</v>
@@ -20017,6 +19819,9 @@
       </c>
       <c r="BQ91" t="n">
         <v>77.89</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>78.13500000000001</v>
       </c>
     </row>
     <row r="92">
@@ -20026,10 +19831,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C92" t="n">
-        <v>51.9455</v>
+        <v>51.76</v>
       </c>
       <c r="D92" t="n">
         <v>50.31</v>
@@ -20228,6 +20033,9 @@
       </c>
       <c r="BQ92" t="n">
         <v>51.9455</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>51.76</v>
       </c>
     </row>
     <row r="93">
@@ -20237,10 +20045,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C93" t="n">
-        <v>96.91</v>
+        <v>96.3699</v>
       </c>
       <c r="D93" t="n">
         <v>94.55</v>
@@ -20448,6 +20256,9 @@
       </c>
       <c r="BT93" t="n">
         <v>96.91</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>96.3699</v>
       </c>
     </row>
     <row r="94">
@@ -20457,10 +20268,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C94" t="n">
-        <v>169.96</v>
+        <v>171.41</v>
       </c>
       <c r="D94" t="n">
         <v>179.8</v>
@@ -20677,6 +20488,9 @@
       </c>
       <c r="BW94" t="n">
         <v>169.96</v>
+      </c>
+      <c r="BX94" t="n">
+        <v>171.41</v>
       </c>
     </row>
     <row r="95">
@@ -20699,10 +20513,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C96" t="n">
-        <v>99.52</v>
+        <v>99.47</v>
       </c>
       <c r="D96" t="n">
         <v>101.87</v>
@@ -20904,6 +20718,9 @@
       </c>
       <c r="BR96" t="n">
         <v>99.52</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>99.47</v>
       </c>
     </row>
     <row r="97">
@@ -20913,10 +20730,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C97" t="n">
-        <v>20.648</v>
+        <v>20.6681</v>
       </c>
       <c r="D97" t="n">
         <v>20.37</v>
@@ -21037,6 +20854,9 @@
       </c>
       <c r="AQ97" t="n">
         <v>20.648</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>20.6681</v>
       </c>
     </row>
     <row r="98">
@@ -21046,10 +20866,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C98" t="n">
-        <v>30.025</v>
+        <v>30.145</v>
       </c>
       <c r="D98" t="n">
         <v>29.215</v>
@@ -21254,6 +21074,9 @@
       </c>
       <c r="BS98" t="n">
         <v>30.025</v>
+      </c>
+      <c r="BT98" t="n">
+        <v>30.145</v>
       </c>
     </row>
     <row r="99">
@@ -21263,10 +21086,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>473.9699</v>
+        <v>474.52</v>
       </c>
       <c r="D99" t="n">
         <v>467.0713</v>
@@ -21468,6 +21291,9 @@
       </c>
       <c r="BR99" t="n">
         <v>473.9699</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>474.52</v>
       </c>
     </row>
     <row r="100">
@@ -21477,10 +21303,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" t="n">
-        <v>464.59</v>
+        <v>462.75</v>
       </c>
       <c r="D100" t="n">
         <v>456.66</v>
@@ -21694,6 +21520,9 @@
       </c>
       <c r="BV100" t="n">
         <v>464.59</v>
+      </c>
+      <c r="BW100" t="n">
+        <v>462.75</v>
       </c>
     </row>
     <row r="101">
@@ -21703,10 +21532,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>10.905</v>
+        <v>11.065</v>
       </c>
       <c r="D101" t="n">
         <v>11.3101</v>
@@ -21899,6 +21728,9 @@
       </c>
       <c r="BO101" t="n">
         <v>10.905</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>11.065</v>
       </c>
     </row>
     <row r="102">
@@ -21908,10 +21740,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" t="n">
-        <v>153.2</v>
+        <v>152.7</v>
       </c>
       <c r="D102" t="n">
         <v>156.418</v>
@@ -22293,6 +22125,9 @@
       </c>
       <c r="DZ102" t="n">
         <v>153.2</v>
+      </c>
+      <c r="EA102" t="n">
+        <v>152.7</v>
       </c>
     </row>
     <row r="103">
@@ -22315,10 +22150,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" t="n">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="D104" t="n">
         <v>1016</v>
@@ -22364,6 +22199,9 @@
       </c>
       <c r="R104" t="n">
         <v>1030</v>
+      </c>
+      <c r="S104" t="n">
+        <v>1024</v>
       </c>
     </row>
     <row r="105">
@@ -22373,10 +22211,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105" t="n">
-        <v>7.38</v>
+        <v>7.395</v>
       </c>
       <c r="D105" t="n">
         <v>7.355</v>
@@ -22539,6 +22377,9 @@
       </c>
       <c r="BE105" t="n">
         <v>7.38</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>7.395</v>
       </c>
     </row>
     <row r="106">
@@ -22572,155 +22413,1279 @@
       <c r="E107" t="n">
         <v>0</v>
       </c>
-      <c r="F107" t="n">
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Kontron AG</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="n">
+      <c r="C108" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Lenovo Group Limited</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
         <v>0</v>
       </c>
-      <c r="H107" t="n">
+      <c r="C109" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Alibaba Group Holding Limited</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
+      <c r="C110" t="n">
+        <v>100.0205</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Aixtron SE</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
+      <c r="C111" t="n">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Siltronic AG</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
         <v>0</v>
       </c>
-      <c r="K107" t="n">
+      <c r="C112" t="n">
+        <v>73.25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Software AG</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
         <v>0</v>
       </c>
-      <c r="L107" t="n">
+      <c r="C113" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Knorr Bremse AG</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
         <v>0</v>
       </c>
-      <c r="M107" t="n">
+      <c r="C114" t="n">
+        <v>48.41</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MTU Aero Engines AG</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
         <v>0</v>
       </c>
-      <c r="N107" t="n">
+      <c r="C115" t="n">
+        <v>188.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Nemetschek SE</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
         <v>0</v>
       </c>
-      <c r="O107" t="n">
+      <c r="C116" t="n">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Bechtle AG</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
         <v>0</v>
       </c>
-      <c r="P107" t="n">
+      <c r="C117" t="n">
+        <v>42.16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CompuGroup Medical SE &amp; Co KgaA</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
         <v>0</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="C118" t="n">
+        <v>39.68</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Krones AG</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
         <v>0</v>
       </c>
-      <c r="R107" t="n">
+      <c r="C119" t="n">
+        <v>84.45</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Duerr AG</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
         <v>0</v>
       </c>
-      <c r="S107" t="n">
+      <c r="C120" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jenoptik AG</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
         <v>0</v>
       </c>
-      <c r="T107" t="n">
+      <c r="C121" t="n">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>JAMES FISHER AND SONS PUBLIC LIMITED COMPANY</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
         <v>0</v>
       </c>
-      <c r="U107" t="n">
+      <c r="C122" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>BALFOUR BEATTY PLC</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
         <v>0</v>
       </c>
-      <c r="V107" t="n">
+      <c r="C123" t="n">
+        <v>314.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CAPITAL &amp; COUNTIES PROPERTIES PLC</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
         <v>0</v>
       </c>
-      <c r="W107" t="n">
+      <c r="C124" t="n">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CLARKSON PLC</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
         <v>0</v>
       </c>
-      <c r="X107" t="n">
+      <c r="C125" t="n">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOFTCAT PLC</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
         <v>0</v>
       </c>
-      <c r="Y107" t="n">
+      <c r="C126" t="n">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>METRO BANK PLC</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
         <v>0</v>
       </c>
-      <c r="Z107" t="n">
+      <c r="C127" t="n">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>AKAMAI TECHNOLOGIES, INC.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
         <v>0</v>
       </c>
-      <c r="AA107" t="n">
+      <c r="C128" t="n">
+        <v>93.90000000000001</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ANSYS, INC.</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
         <v>0</v>
       </c>
-      <c r="AB107" t="n">
+      <c r="C129" t="n">
+        <v>265.065</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>BLACKBERRY LIMITED</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
         <v>0</v>
       </c>
-      <c r="AC107" t="n">
+      <c r="C130" t="n">
+        <v>6.385</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CYBERARK SOFTWARE LTD.</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
         <v>0</v>
       </c>
-      <c r="AD107" t="n">
+      <c r="C131" t="n">
+        <v>153.56</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Mandiant, Inc.</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
         <v>0</v>
       </c>
-      <c r="AE107" t="n">
+      <c r="C132" t="n">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>GODADDY INC.</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
         <v>0</v>
       </c>
-      <c r="AF107" t="n">
+      <c r="C133" t="n">
+        <v>80.58</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CGI INC.</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
         <v>0</v>
       </c>
-      <c r="AG107" t="n">
+      <c r="C134" t="n">
+        <v>82.76000000000001</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Garmin Ltd</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
         <v>0</v>
       </c>
-      <c r="AH107" t="n">
+      <c r="C135" t="n">
+        <v>94.78</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>GLOBALSTAR, INC.</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
         <v>0</v>
       </c>
-      <c r="AI107" t="n">
+      <c r="C136" t="n">
+        <v>1.865</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>HUBSPOT, INC.</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
         <v>0</v>
       </c>
-      <c r="AJ107" t="n">
+      <c r="C137" t="n">
+        <v>350.86</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>INFOSYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
         <v>0</v>
       </c>
-      <c r="AK107" t="n">
+      <c r="C138" t="n">
+        <v>19.125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>IPG PHOTONICS CORPORATION</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
         <v>0</v>
       </c>
-      <c r="AL107" t="n">
+      <c r="C139" t="n">
+        <v>97.59</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>MAXLINEAR, INC.</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
         <v>0</v>
       </c>
-      <c r="AM107" t="n">
+      <c r="C140" t="n">
+        <v>40.505</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NATIONAL INSTRUMENTS CORPORATION</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
         <v>0</v>
       </c>
-      <c r="AN107" t="n">
+      <c r="C141" t="n">
+        <v>41.935</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NEW RELIC, INC.</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
         <v>0</v>
       </c>
-      <c r="AO107" t="n">
+      <c r="C142" t="n">
+        <v>64.52</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NIELSEN HOLDINGS PLC</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
         <v>0</v>
       </c>
-      <c r="AP107" t="n">
+      <c r="C143" t="n">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NXP Semiconductors NV</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
         <v>0</v>
       </c>
-      <c r="AQ107" t="n">
+      <c r="C144" t="n">
+        <v>176.99</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>PALO ALTO NETWORKS, INC.</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
         <v>0</v>
       </c>
-      <c r="AR107" t="n">
+      <c r="C145" t="n">
+        <v>574.7173</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>POWER INTEGRATIONS, INC.</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
         <v>0</v>
       </c>
-      <c r="AS107" t="n">
+      <c r="C146" t="n">
+        <v>79.785</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SBA Communications Corporation</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
         <v>0</v>
       </c>
-      <c r="AT107" t="n">
+      <c r="C147" t="n">
+        <v>337.84</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SHOPIFY INC.</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
         <v>0</v>
       </c>
-      <c r="AU107" t="n">
+      <c r="C148" t="n">
+        <v>34.0999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SENSATA TECHNOLOGIES HOLDING PLC</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
         <v>0</v>
       </c>
-      <c r="AV107" t="n">
+      <c r="C149" t="n">
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SKYWORKS SOLUTIONS, INC.</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
         <v>0</v>
       </c>
-      <c r="AW107" t="n">
+      <c r="C150" t="n">
+        <v>107.55</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SYNAPTICS INCORPORATED</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
         <v>0</v>
       </c>
-      <c r="AX107" t="n">
+      <c r="C151" t="n">
+        <v>132.225</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>TRIMBLE INC.</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
         <v>0</v>
       </c>
-      <c r="AY107" t="n">
+      <c r="C152" t="n">
+        <v>68.81</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>UBIQUITI INC.</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
         <v>0</v>
       </c>
-      <c r="AZ107" t="n">
+      <c r="C153" t="n">
+        <v>317.92</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>VIAVI SOLUTIONS INC.</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
         <v>0</v>
       </c>
-      <c r="BA107" t="n">
+      <c r="C154" t="n">
+        <v>15.105</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>VMWARE, INC.</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
         <v>0</v>
       </c>
-      <c r="BB107" t="n">
+      <c r="C155" t="n">
+        <v>121.63</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>VERISIGN, INC.</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
         <v>0</v>
       </c>
-      <c r="BC107" t="n">
+      <c r="C156" t="n">
+        <v>193.52</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>YELP INC.</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
         <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>34.74</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ZENDESK, INC.</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>76.545</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>COMMSCOPE HOLDING COMPANY, INC.</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>10.685</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DiaSorin SpA</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Pirelli &amp; C SpA</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>3.876</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Broadcom Inc.</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>545.91</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>ASML Holding NV</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>534.63</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SERVICENOW, INC.</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>463.42</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>DELL TECHNOLOGIES INC.</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>47.725</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>WORKDAY, INC.</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>161.76</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>ANALOG DEVICES, INC.</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>166.3801</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PAYCHEX, INC.</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>133.66</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>ATLASSIAN CORPORATION PLC</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>265.36</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>MICROCHIP TECHNOLOGY INCORPORATED</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>69.90000000000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>KLA Corporation</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>373.835</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SPLUNK INC.</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>97.05</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>VEEVA SYSTEMS INC.</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>217.41</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>CADENCE DESIGN SYSTEMS, INC.</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>184.03</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SYNOPSYS, INC.</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>360.61</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DXC TECHNOLOGY COMPANY</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MSCI INC.</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>473.335</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>TWILIO INC.</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>75.268</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>FORTINET, INC.</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>50.585</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SEAGATE TECHNOLOGY HOLDINGS PUBLIC LIMITED COMPANY</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>78.86499999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MARVELL TECHNOLOGY, INC</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>54.645</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>CITRIX SYSTEMS, INC.</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>102.725</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>BROADRIDGE FINANCIAL SOLUTIONS, INC.</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>175.78</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>PAYCOM SOFTWARE, INC.</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>372.695</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ON SEMICONDUCTOR CORPORATION</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>75.83499999999999</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DOCUSIGN, INC.</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>61.64</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>GUIDEWIRE SOFTWARE, INC.</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>75.79000000000001</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>MONGODB, INC.</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>364.175</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NUTANIX, INC.</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>19.315</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>COUPA SOFTWARE INCORPORATED</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>61.38</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Lumentum Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>90.36</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>JACK HENRY &amp; ASSOCIATES, INC.</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>199.445</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>FT II:Cloud Computing</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>73.31</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Taiwan Semiconductor Manufacturing Co., Ltd.</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>86.97</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Weibo Corporation</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ASM International NV</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>293.45</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BE Semiconductor Industries NV</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Koninklijke KPN NV</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.188</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>TomTom NV</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.324999999999999</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Royal Vopak</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>22.18</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Atos SE</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>10.235</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Dassault Systemes SE</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>40.51</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sopra Steria Group SA</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>145.7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Ubisoft Entertainment SA</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>43.04</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Amdocs Limited</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>87.54000000000001</v>
       </c>
     </row>
   </sheetData>
